--- a/Examples/Data/Documents/sample.xlsx
+++ b/Examples/Data/Documents/sample.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GroupDocs\GDWatermark Fork\Examples\Data\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="22995" windowHeight="9030" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="22995" windowHeight="9030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames/>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -40,8 +48,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +95,10 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="3" tint="-0.49996"/>
+      <color theme="3" tint="-0.49984"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="54"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -101,6 +109,7 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -114,7 +123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999"/>
+        <fgColor theme="4" tint="0.59996"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998"/>
+        <fgColor theme="3" tint="0.79995"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,10 +186,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0"/>
@@ -194,7 +203,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79998"/>
+          <bgColor theme="3" tint="0.79995"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
@@ -202,7 +211,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79998"/>
+          <bgColor theme="3" tint="0.79995"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
@@ -210,7 +219,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79998"/>
+          <bgColor theme="3" tint="0.79995"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
@@ -218,7 +227,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="3" tint="0.79998"/>
+          <bgColor theme="3" tint="0.79995"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" shrinkToFit="0" readingOrder="0"/>
@@ -297,6 +306,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -328,7 +340,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1800" b="1" u="none" baseline="0"/>
+            <a:defRPr lang="en-US" sz="1800" b="1" u="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:defRPr>
           </a:pPr>
         </a:p>
       </c:txPr>
@@ -419,17 +435,36 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D62-425C-87C3-73B354446ED5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="17934983"/>
-        <c:axId val="59614629"/>
+        <c:axId val="22863715"/>
+        <c:axId val="64997087"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="17934983"/>
+        <c:axId val="22863715"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -437,20 +472,27 @@
         <c:spPr>
           <a:ln w="9525" cap="flat" cmpd="sng"/>
         </c:spPr>
-        <c:crossAx val="59614629"/>
+        <c:crossAx val="64997087"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59614629"/>
+        <c:axId val="64997087"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -458,7 +500,7 @@
         <c:spPr>
           <a:ln w="9525" cap="flat" cmpd="sng"/>
         </c:spPr>
-        <c:crossAx val="17934983"/>
+        <c:crossAx val="22863715"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -682,6 +724,347 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="4505325" y="1714500"/>
+              <a:ext cx="2543175" cy="5076825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="9134475" y="1724025"/>
+              <a:ext cx="2543175" cy="5076825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>23</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>142875</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="11877675" y="971550"/>
+              <a:ext cx="2543175" cy="5076825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="638175" y="1266825"/>
+              <a:ext cx="2543175" cy="5076825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="638175" y="1266825"/>
+              <a:ext cx="2543175" cy="5076825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Object 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="638175" y="1266825"/>
+              <a:ext cx="2543175" cy="5076825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>400050</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>57150</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Object 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="638175" y="1266825"/>
+              <a:ext cx="2543175" cy="5076825"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect"/>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -816,6 +1199,16 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <oleLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" progId="Paint.Picture">
+    <oleItems>
+      <oleItem name="'" advise="1" preferPic="1"/>
+    </oleItems>
+  </oleLink>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B19:C25" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="B19:C25"/>
@@ -828,9 +1221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -868,9 +1261,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -903,9 +1296,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,9 +1348,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1116,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B19:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1127,7 +1554,7 @@
     <col min="4" max="16384" width="9.14285714285714" style="8"/>
   </cols>
   <sheetData>
-    <row r="19" spans="2:3" s="8" customFormat="1" ht="15">
+    <row r="19" spans="2:3" ht="15">
       <c r="B19" s="7" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" s="8" customFormat="1" ht="15">
+    <row r="20" spans="2:3" ht="15">
       <c r="B20" s="7">
         <v>2010</v>
       </c>
@@ -1143,7 +1570,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="2:3" s="8" customFormat="1" ht="15">
+    <row r="21" spans="2:3" ht="15">
       <c r="B21" s="7">
         <v>2011</v>
       </c>
@@ -1151,7 +1578,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="8" customFormat="1" ht="15">
+    <row r="22" spans="2:3" ht="15">
       <c r="B22" s="7">
         <v>2012</v>
       </c>
@@ -1159,7 +1586,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="8" customFormat="1" ht="15">
+    <row r="23" spans="2:3" ht="15">
       <c r="B23" s="7">
         <v>2013</v>
       </c>
@@ -1167,7 +1594,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="8" customFormat="1" ht="15">
+    <row r="24" spans="2:3" ht="15">
       <c r="B24" s="7">
         <v>2014</v>
       </c>
@@ -1175,7 +1602,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="25" spans="2:3" s="8" customFormat="1" ht="15">
+    <row r="25" spans="2:3" ht="15">
       <c r="B25" s="7">
         <v>2015</v>
       </c>
@@ -1185,8 +1612,186 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId14"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" shapeId="1028" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" shapeId="1028" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" shapeId="1029" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" shapeId="1029" r:id="rId5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>23</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1030"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" shapeId="1031" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" shapeId="1031" r:id="rId8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032">
+          <objectPr defaultSize="0" r:id="rId10">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1032"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" shapeId="1033" r:id="rId11">
+          <objectPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" shapeId="1033" r:id="rId11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Package" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1034">
+          <objectPr defaultSize="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>400050</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Package" link="[1]!''''" oleUpdate="OLEUPDATE_ALWAYS" shapeId="1034"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
   <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1197,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
